--- a/ConfigurationFiles/2-Score_weight_TG.xlsx
+++ b/ConfigurationFiles/2-Score_weight_TG.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12651"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,15 +409,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -428,7 +428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -439,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -461,7 +461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -469,10 +469,10 @@
         <v>1.6</v>
       </c>
       <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -480,10 +480,10 @@
         <v>1.6</v>
       </c>
       <c r="C6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -491,10 +491,10 @@
         <v>1.6</v>
       </c>
       <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -505,7 +505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -516,7 +516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>11</v>
       </c>

--- a/ConfigurationFiles/2-Score_weight_TG.xlsx
+++ b/ConfigurationFiles/2-Score_weight_TG.xlsx
@@ -33,28 +33,28 @@
     <t>FA1_[FA-H2O+H]+</t>
   </si>
   <si>
-    <t>[MG(FA1)-H2O+H]+</t>
-  </si>
-  <si>
     <t>[M-(FA1)+H]+</t>
   </si>
   <si>
     <t>FA2_[FA-H2O+H]+</t>
   </si>
   <si>
-    <t>[MG(FA2)-H2O+H]+</t>
-  </si>
-  <si>
     <t>[M-(FA2)+H]+</t>
   </si>
   <si>
     <t>FA3_[FA-H2O+H]+</t>
   </si>
   <si>
-    <t>[MG(FA3)-H2O+H]+</t>
-  </si>
-  <si>
     <t>[M-(FA3)+H]+</t>
+  </si>
+  <si>
+    <t>FA3_[MG-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA2_[MG-H2O+H]+</t>
+  </si>
+  <si>
+    <t>FA1_[MG-H2O+H]+</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -441,7 +441,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>1.6</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>1.6</v>
@@ -463,40 +463,40 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1.6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1.6</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>1.6</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>30</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>30</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>30</v>
